--- a/Documentos/Datos Inicio Sesion PY.xlsx
+++ b/Documentos/Datos Inicio Sesion PY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\yenifer.alfaro\RF_Nivel1\RFramework_Udemy\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB5E34-21E5-4A8B-BA38-89C847908E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B750AD7-9A8E-493F-8829-F5089CE2FF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{246C9824-C648-4891-8BC0-236DBCB98DB9}"/>
   </bookViews>
@@ -36,66 +36,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>nombre 1</t>
   </si>
   <si>
-    <t>email1@gmail.com</t>
-  </si>
-  <si>
     <t>nombre 2</t>
   </si>
   <si>
     <t>nombre 3</t>
   </si>
   <si>
-    <t>nombre 4</t>
-  </si>
-  <si>
-    <t>nombre 5</t>
-  </si>
-  <si>
-    <t>nombre 6</t>
-  </si>
-  <si>
-    <t>email2@gmail.com</t>
-  </si>
-  <si>
-    <t>email3@gmail.com</t>
-  </si>
-  <si>
-    <t>email4@gmail.com</t>
-  </si>
-  <si>
-    <t>email5@gmail.com</t>
-  </si>
-  <si>
-    <t>email6@gmail.com</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>tomsmith</t>
+  </si>
+  <si>
+    <t>SuperSecretPassword!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -139,18 +110,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A9D244-37AD-475F-8BFE-63B7DE69B46D}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,70 +445,51 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
+      <c r="B2" s="2">
+        <v>1234</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4567</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8910</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{332E5905-60DA-4EEA-9FE8-5844BEC5FE33}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{5B03A9BA-872D-41CF-AAFE-A182B10A8843}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{E15AB18B-D6AB-4C2E-B033-392C70B13DBA}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{B47AA190-3ACF-481C-8B53-DBD5CCD4C01C}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{C6CCAD70-93DA-450E-BFBF-15DF6B42148B}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{BC943644-072F-42AF-8CB5-E28970AE523C}"/>
+    <hyperlink ref="B2" r:id="rId1" display="email1@gmail.com" xr:uid="{332E5905-60DA-4EEA-9FE8-5844BEC5FE33}"/>
+    <hyperlink ref="B4" r:id="rId2" display="email3@gmail.com" xr:uid="{E15AB18B-D6AB-4C2E-B033-392C70B13DBA}"/>
+    <hyperlink ref="B5" r:id="rId3" display="email4@gmail.com" xr:uid="{B47AA190-3ACF-481C-8B53-DBD5CCD4C01C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>